--- a/HardcoreDungeon_개발일정 - 기획.xlsx
+++ b/HardcoreDungeon_개발일정 - 기획.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9BD777-CDEE-45B1-834B-22262ACB577E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7D7E67-3BA1-45CC-BB5E-83594B579EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,143 +97,6 @@
   </si>
   <si>
     <t>추가 개발 필요사항 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 기본정보 / 적 기본정보 Class 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군,적 스킬 / 카드 Class 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴제 전투 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전(전투 층, 이벤트 층 ) 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 - 상점( 스킬, 캐릭터 ), 강화(스킬, 캐릭터) 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 - 던전 입장, 캐릭터 선택 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 &lt;-&gt; 던전 데이터 연동, 타이틀 화면 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리소스 적용 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 1 더미 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 1 리소스 작업
-(바위, 나무, 풀, 잔디, 꽃 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 카툰 쉐이딩 작업
-(넉넉하게 작업 완료 후 수정 진행)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 2 더미 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 2 리소스 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 모델링</t>
-  </si>
-  <si>
-    <t>몬스터 언랩, 텍스쳐 제작 / 캐릭터 레퍼런스 조사, 바디 모델링</t>
-  </si>
-  <si>
-    <t>캐릭터 헤어, 의상, 무기 모델링</t>
-  </si>
-  <si>
-    <t>캐릭터 텍스쳐 제작, 리깅</t>
-  </si>
-  <si>
-    <t>몬스터, 캐릭터 애니메이션 제작(idel, 공격, 피격모션)</t>
-  </si>
-  <si>
-    <t>카드UI 제작, 마을 컨셉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을1 리소스제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을 캐릭터 애니메이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점, 강화, 용병단 등 마을 UI제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템, 캐릭터 일러스트 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">추가된 카드 UI 제작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 배치 및 컨셉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던전UI 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 효과UI제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을2 리소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을3 리소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,14 +174,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,20 +603,20 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
       <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
@@ -759,186 +625,48 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="6">
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
